--- a/data/pca/factorExposure/factorExposure_2015-12-22.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-12-22.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +717,100 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.01755062152902068</v>
+        <v>0.01770448276034665</v>
       </c>
       <c r="C2">
-        <v>0.03205865440364788</v>
+        <v>-0.03253411576703284</v>
       </c>
       <c r="D2">
-        <v>-0.08849415674711673</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.1133397183423365</v>
+      </c>
+      <c r="E2">
+        <v>-0.07059056676598401</v>
+      </c>
+      <c r="F2">
+        <v>0.009670971626947524</v>
+      </c>
+      <c r="G2">
+        <v>-0.04938609280951323</v>
+      </c>
+      <c r="H2">
+        <v>0.0957693861173277</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>-0.01515665456267045</v>
+        <v>0.008633825976718948</v>
       </c>
       <c r="C3">
-        <v>0.05602128462292022</v>
+        <v>-0.03708381831117073</v>
       </c>
       <c r="D3">
-        <v>-0.1356541688078917</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.08026579866196309</v>
+      </c>
+      <c r="E3">
+        <v>-0.07937921230259497</v>
+      </c>
+      <c r="F3">
+        <v>0.03591463835354287</v>
+      </c>
+      <c r="G3">
+        <v>-0.08198948980836424</v>
+      </c>
+      <c r="H3">
+        <v>0.04420046529123798</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.04883788861555632</v>
+        <v>0.05349495681419541</v>
       </c>
       <c r="C4">
-        <v>0.0361585484258585</v>
+        <v>-0.06381774382990733</v>
       </c>
       <c r="D4">
-        <v>-0.1247319605977611</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.1393640307559549</v>
+      </c>
+      <c r="E4">
+        <v>-0.05813378751596492</v>
+      </c>
+      <c r="F4">
+        <v>0.01901585738585254</v>
+      </c>
+      <c r="G4">
+        <v>0.02788862788284002</v>
+      </c>
+      <c r="H4">
+        <v>-0.02788220829308814</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.04353900267816348</v>
+        <v>0.04015742347393745</v>
       </c>
       <c r="C6">
-        <v>0.005862208569251521</v>
+        <v>-0.02648870198720816</v>
       </c>
       <c r="D6">
-        <v>-0.1285425861164931</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.1274163279180993</v>
+      </c>
+      <c r="E6">
+        <v>-0.03551039946344885</v>
+      </c>
+      <c r="F6">
+        <v>0.01309417727846627</v>
+      </c>
+      <c r="G6">
+        <v>-0.01092762271622855</v>
+      </c>
+      <c r="H6">
+        <v>0.01631947714854915</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.02218320958481227</v>
+        <v>0.01578726346728262</v>
       </c>
       <c r="C7">
-        <v>0.01344548778800398</v>
+        <v>-0.02936179327735914</v>
       </c>
       <c r="D7">
-        <v>-0.08944415416037529</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.09005861907572033</v>
+      </c>
+      <c r="E7">
+        <v>-0.03749456110158946</v>
+      </c>
+      <c r="F7">
+        <v>0.01547418553125372</v>
+      </c>
+      <c r="G7">
+        <v>0.02337009308189195</v>
+      </c>
+      <c r="H7">
+        <v>0.1060474081270202</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.00930127948607999</v>
+        <v>0.007695359263565513</v>
       </c>
       <c r="C8">
-        <v>0.0289145362255542</v>
+        <v>-0.03783785586774725</v>
       </c>
       <c r="D8">
-        <v>-0.06322953733764818</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.07561942253192357</v>
+      </c>
+      <c r="E8">
+        <v>-0.03906006446092039</v>
+      </c>
+      <c r="F8">
+        <v>0.03005418466858548</v>
+      </c>
+      <c r="G8">
+        <v>-0.004497040544788155</v>
+      </c>
+      <c r="H8">
+        <v>0.03974483954081972</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.0411040626612654</v>
+        <v>0.04143230398730254</v>
       </c>
       <c r="C9">
-        <v>0.03590980934501425</v>
+        <v>-0.05901491938233382</v>
       </c>
       <c r="D9">
-        <v>-0.1076779011862567</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.1166283352782592</v>
+      </c>
+      <c r="E9">
+        <v>-0.03778605615245236</v>
+      </c>
+      <c r="F9">
+        <v>-0.0004199385100963115</v>
+      </c>
+      <c r="G9">
+        <v>0.02461921066940955</v>
+      </c>
+      <c r="H9">
+        <v>0.006842841610573918</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.09647613253643897</v>
+        <v>0.1360627835596858</v>
       </c>
       <c r="C10">
-        <v>-0.1941981899932282</v>
+        <v>0.1887050065720976</v>
       </c>
       <c r="D10">
-        <v>0.007056991323029303</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.002467977541504782</v>
+      </c>
+      <c r="E10">
+        <v>-0.05224397562447246</v>
+      </c>
+      <c r="F10">
+        <v>0.01266586712752358</v>
+      </c>
+      <c r="G10">
+        <v>0.04106250795712926</v>
+      </c>
+      <c r="H10">
+        <v>-0.00723495400486703</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.03402722410347078</v>
+        <v>0.02836434199959045</v>
       </c>
       <c r="C11">
-        <v>0.03785022834384084</v>
+        <v>-0.0431328065377738</v>
       </c>
       <c r="D11">
-        <v>-0.05999413530080593</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.05779713686553591</v>
+      </c>
+      <c r="E11">
+        <v>-0.001725853349697719</v>
+      </c>
+      <c r="F11">
+        <v>0.008387730119682867</v>
+      </c>
+      <c r="G11">
+        <v>0.00631058526849758</v>
+      </c>
+      <c r="H11">
+        <v>0.05022562942583482</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.0384284166856967</v>
+        <v>0.03275250534301578</v>
       </c>
       <c r="C12">
-        <v>0.04122995059473257</v>
+        <v>-0.04568072508351687</v>
       </c>
       <c r="D12">
-        <v>-0.05957713826144819</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.05574229538555488</v>
+      </c>
+      <c r="E12">
+        <v>-0.009997044232671479</v>
+      </c>
+      <c r="F12">
+        <v>0.004112814783009181</v>
+      </c>
+      <c r="G12">
+        <v>0.01110790283144273</v>
+      </c>
+      <c r="H12">
+        <v>0.0642714278142405</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.01376008108565112</v>
+        <v>0.01828579676892381</v>
       </c>
       <c r="C13">
-        <v>0.02635014463163995</v>
+        <v>-0.0377004349497801</v>
       </c>
       <c r="D13">
-        <v>-0.1196070539664242</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.1392442671951122</v>
+      </c>
+      <c r="E13">
+        <v>-0.06628688206301302</v>
+      </c>
+      <c r="F13">
+        <v>0.02689798065813801</v>
+      </c>
+      <c r="G13">
+        <v>0.005435370356815468</v>
+      </c>
+      <c r="H13">
+        <v>0.1000867649257137</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.01155426188965148</v>
+        <v>0.008125313733342869</v>
       </c>
       <c r="C14">
-        <v>0.01831583200397799</v>
+        <v>-0.02402707976899423</v>
       </c>
       <c r="D14">
-        <v>-0.08139452734437906</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.08371577766896814</v>
+      </c>
+      <c r="E14">
+        <v>-0.03455967557418731</v>
+      </c>
+      <c r="F14">
+        <v>-0.00973091914003873</v>
+      </c>
+      <c r="G14">
+        <v>0.004033177910006049</v>
+      </c>
+      <c r="H14">
+        <v>0.1001539755256201</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>0.001488053867807823</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>-0.009117136277393724</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.02798501460457536</v>
+      </c>
+      <c r="E15">
+        <v>-0.006502828380009628</v>
+      </c>
+      <c r="F15">
+        <v>-0.002673829580878079</v>
+      </c>
+      <c r="G15">
+        <v>-0.007196199733693093</v>
+      </c>
+      <c r="H15">
+        <v>0.01102567578693363</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.03626872078878301</v>
+        <v>0.02956358940812926</v>
       </c>
       <c r="C16">
-        <v>0.03973592817446411</v>
+        <v>-0.04366282410146644</v>
       </c>
       <c r="D16">
-        <v>-0.06562270386305848</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.05966262758079606</v>
+      </c>
+      <c r="E16">
+        <v>-0.01442092238459885</v>
+      </c>
+      <c r="F16">
+        <v>-0.004438280748512362</v>
+      </c>
+      <c r="G16">
+        <v>0.002128449831288992</v>
+      </c>
+      <c r="H16">
+        <v>0.05954051879838413</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1159,230 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.009194647148227592</v>
+        <v>0.01061975733803593</v>
       </c>
       <c r="C19">
-        <v>0.01842284649863426</v>
+        <v>-0.02087470089030615</v>
       </c>
       <c r="D19">
-        <v>-0.1675570547217647</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.1284922918362211</v>
+      </c>
+      <c r="E19">
+        <v>-0.06513340901602048</v>
+      </c>
+      <c r="F19">
+        <v>-0.02843438488485682</v>
+      </c>
+      <c r="G19">
+        <v>-0.01335123618066696</v>
+      </c>
+      <c r="H19">
+        <v>0.06189480259245402</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.02024458040541</v>
+        <v>0.01598668295663019</v>
       </c>
       <c r="C20">
-        <v>0.02029273454810284</v>
+        <v>-0.03186054209845118</v>
       </c>
       <c r="D20">
-        <v>-0.08488254158058287</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.09390364256596766</v>
+      </c>
+      <c r="E20">
+        <v>-0.05582956854916398</v>
+      </c>
+      <c r="F20">
+        <v>-0.007734321986998117</v>
+      </c>
+      <c r="G20">
+        <v>0.006544982482673296</v>
+      </c>
+      <c r="H20">
+        <v>0.05773203920641931</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.009321372652443967</v>
+        <v>0.01490784811960723</v>
       </c>
       <c r="C21">
-        <v>0.02495787394004179</v>
+        <v>-0.03648652351581458</v>
       </c>
       <c r="D21">
-        <v>-0.123769108497944</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.1348919459675268</v>
+      </c>
+      <c r="E21">
+        <v>-0.09184565521362778</v>
+      </c>
+      <c r="F21">
+        <v>-0.01533866311604888</v>
+      </c>
+      <c r="G21">
+        <v>0.04557072268391785</v>
+      </c>
+      <c r="H21">
+        <v>0.1094398945178499</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>-0.004698374256591102</v>
+        <v>0.005164489195156796</v>
       </c>
       <c r="C22">
-        <v>0.02485404018193206</v>
+        <v>-0.04010069851866297</v>
       </c>
       <c r="D22">
-        <v>-0.07442181135734709</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.1289511939772708</v>
+      </c>
+      <c r="E22">
+        <v>-0.0363898852695549</v>
+      </c>
+      <c r="F22">
+        <v>0.07883648544711677</v>
+      </c>
+      <c r="G22">
+        <v>-0.06562720130795423</v>
+      </c>
+      <c r="H22">
+        <v>-0.03526146531076443</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>-0.004733068415355956</v>
+        <v>0.005260236643327275</v>
       </c>
       <c r="C23">
-        <v>0.02484688588467824</v>
+        <v>-0.04055174870467439</v>
       </c>
       <c r="D23">
-        <v>-0.07389644147370129</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.1284117841551196</v>
+      </c>
+      <c r="E23">
+        <v>-0.03659561353076482</v>
+      </c>
+      <c r="F23">
+        <v>0.07874591200671757</v>
+      </c>
+      <c r="G23">
+        <v>-0.0647473832285884</v>
+      </c>
+      <c r="H23">
+        <v>-0.03559961656717495</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.03484915690472917</v>
+        <v>0.0310811334614907</v>
       </c>
       <c r="C24">
-        <v>0.04396723751273341</v>
+        <v>-0.05386942827280886</v>
       </c>
       <c r="D24">
-        <v>-0.06759832070813242</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.06434600693397224</v>
+      </c>
+      <c r="E24">
+        <v>-0.01635872865712364</v>
+      </c>
+      <c r="F24">
+        <v>-0.001837251898944064</v>
+      </c>
+      <c r="G24">
+        <v>0.01486985702684482</v>
+      </c>
+      <c r="H24">
+        <v>0.06890251979593445</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.04011185990109784</v>
+        <v>0.03503026320645011</v>
       </c>
       <c r="C25">
-        <v>0.04791981408142254</v>
+        <v>-0.05279078321140201</v>
       </c>
       <c r="D25">
-        <v>-0.06658360417818857</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.06057375034200383</v>
+      </c>
+      <c r="E25">
+        <v>-0.01887081680580084</v>
+      </c>
+      <c r="F25">
+        <v>0.007187428457310627</v>
+      </c>
+      <c r="G25">
+        <v>0.0192231129225197</v>
+      </c>
+      <c r="H25">
+        <v>0.05660409279679099</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.02390769007515389</v>
+        <v>0.02108403604839157</v>
       </c>
       <c r="C26">
-        <v>0.003073724682992321</v>
+        <v>-0.01658582381514708</v>
       </c>
       <c r="D26">
-        <v>-0.05340756449816873</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.06343652540736379</v>
+      </c>
+      <c r="E26">
+        <v>-0.02773137023021615</v>
+      </c>
+      <c r="F26">
+        <v>-0.005782549899697047</v>
+      </c>
+      <c r="G26">
+        <v>-0.001856635060208085</v>
+      </c>
+      <c r="H26">
+        <v>0.05780160558928586</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.1410557041248088</v>
+        <v>0.1930184993133472</v>
       </c>
       <c r="C28">
-        <v>-0.2730116137556561</v>
+        <v>0.2549926360046229</v>
       </c>
       <c r="D28">
-        <v>0.04484449505569525</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.01822548072678194</v>
+      </c>
+      <c r="E28">
+        <v>-0.07369420884131406</v>
+      </c>
+      <c r="F28">
+        <v>-0.005488838103504525</v>
+      </c>
+      <c r="G28">
+        <v>0.07568072843010459</v>
+      </c>
+      <c r="H28">
+        <v>0.001451800390807741</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.00478930575597029</v>
+        <v>0.00651228379203731</v>
       </c>
       <c r="C29">
-        <v>0.01781030474679684</v>
+        <v>-0.02264928641809444</v>
       </c>
       <c r="D29">
-        <v>-0.06424909616061317</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.07790086775329953</v>
+      </c>
+      <c r="E29">
+        <v>-0.03769883660717203</v>
+      </c>
+      <c r="F29">
+        <v>0.003035238538754625</v>
+      </c>
+      <c r="G29">
+        <v>0.02125531346633841</v>
+      </c>
+      <c r="H29">
+        <v>0.102389704921825</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.0423675837529767</v>
+        <v>0.04320914868805464</v>
       </c>
       <c r="C30">
-        <v>0.03186933334407797</v>
+        <v>-0.05771137127521787</v>
       </c>
       <c r="D30">
-        <v>-0.1624748992072627</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.1749264006567808</v>
+      </c>
+      <c r="E30">
+        <v>-0.02617066676859858</v>
+      </c>
+      <c r="F30">
+        <v>0.006344643946120596</v>
+      </c>
+      <c r="G30">
+        <v>-0.03476760829955577</v>
+      </c>
+      <c r="H30">
+        <v>0.01166835745185504</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.0653037956456267</v>
+        <v>0.05472713821530914</v>
       </c>
       <c r="C31">
-        <v>0.05106687156891053</v>
+        <v>-0.0720588873945812</v>
       </c>
       <c r="D31">
-        <v>-0.0620948087810588</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.05321454304767968</v>
+      </c>
+      <c r="E31">
+        <v>-0.04074349318395887</v>
+      </c>
+      <c r="F31">
+        <v>0.04042048561073207</v>
+      </c>
+      <c r="G31">
+        <v>0.01220908684439921</v>
+      </c>
+      <c r="H31">
+        <v>0.03705135349160071</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.001087896651035451</v>
+        <v>0.0112907396334811</v>
       </c>
       <c r="C32">
-        <v>0.005250396891961497</v>
+        <v>-0.01535328050052376</v>
       </c>
       <c r="D32">
-        <v>-0.05577006761876309</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.09051541365084033</v>
+      </c>
+      <c r="E32">
+        <v>-0.08483850006780728</v>
+      </c>
+      <c r="F32">
+        <v>-0.003253154835990206</v>
+      </c>
+      <c r="G32">
+        <v>0.05773190618122978</v>
+      </c>
+      <c r="H32">
+        <v>0.08598525321558341</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.02584882106983501</v>
+        <v>0.02412136970330701</v>
       </c>
       <c r="C33">
-        <v>0.02134647842207292</v>
+        <v>-0.04145320809545099</v>
       </c>
       <c r="D33">
-        <v>-0.1317824781841751</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.1301392487145787</v>
+      </c>
+      <c r="E33">
+        <v>-0.05054235997299986</v>
+      </c>
+      <c r="F33">
+        <v>0.0152055596438077</v>
+      </c>
+      <c r="G33">
+        <v>0.00874657664872195</v>
+      </c>
+      <c r="H33">
+        <v>0.06812961595390034</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.03277559856863141</v>
+        <v>0.02794896693977868</v>
       </c>
       <c r="C34">
-        <v>0.05937550063124466</v>
+        <v>-0.06106616575463003</v>
       </c>
       <c r="D34">
-        <v>-0.06916894748886604</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.05913449203562988</v>
+      </c>
+      <c r="E34">
+        <v>0.0004801748727518742</v>
+      </c>
+      <c r="F34">
+        <v>-0.001339054487881284</v>
+      </c>
+      <c r="G34">
+        <v>0.01596191192636306</v>
+      </c>
+      <c r="H34">
+        <v>0.07718784979757309</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.0006847509878351351</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>-0.0003235545629053204</v>
       </c>
       <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.003579769410319814</v>
+      </c>
+      <c r="E35">
+        <v>-0.0004240301237185781</v>
+      </c>
+      <c r="F35">
+        <v>0.0001326520928821432</v>
+      </c>
+      <c r="G35">
+        <v>-0.0003144526288347755</v>
+      </c>
+      <c r="H35">
+        <v>0.002678309896188088</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.02130593440212966</v>
+        <v>0.01903892792903333</v>
       </c>
       <c r="C36">
-        <v>0.0008349918591492059</v>
+        <v>-0.01468041696514083</v>
       </c>
       <c r="D36">
-        <v>-0.07181981392382092</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.07631407143147924</v>
+      </c>
+      <c r="E36">
+        <v>-0.03608572916057037</v>
+      </c>
+      <c r="F36">
+        <v>-0.004266934821781247</v>
+      </c>
+      <c r="G36">
+        <v>0.01434405773308221</v>
+      </c>
+      <c r="H36">
+        <v>0.05235721651950699</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.02783281645079704</v>
+        <v>0.02200798959202854</v>
       </c>
       <c r="C38">
-        <v>0.01715666665445582</v>
+        <v>-0.02191646387072708</v>
       </c>
       <c r="D38">
-        <v>-0.05678758633638112</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.06070576184785146</v>
+      </c>
+      <c r="E38">
+        <v>-0.0439008053589288</v>
+      </c>
+      <c r="F38">
+        <v>-0.006308069552468521</v>
+      </c>
+      <c r="G38">
+        <v>-0.0342550421897299</v>
+      </c>
+      <c r="H38">
+        <v>0.04251791599775975</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.04000576338549819</v>
+        <v>0.0362511781128862</v>
       </c>
       <c r="C39">
-        <v>0.05115190140614986</v>
+        <v>-0.06344560520728489</v>
       </c>
       <c r="D39">
-        <v>-0.09056286159191455</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.1018844008185221</v>
+      </c>
+      <c r="E39">
+        <v>-0.01221437955329824</v>
+      </c>
+      <c r="F39">
+        <v>-0.01812864790336645</v>
+      </c>
+      <c r="G39">
+        <v>0.001058391863900033</v>
+      </c>
+      <c r="H39">
+        <v>0.08828519192129261</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.01724877159561799</v>
+        <v>0.01497590231753246</v>
       </c>
       <c r="C40">
-        <v>0.04120599806036773</v>
+        <v>-0.03688680091777682</v>
       </c>
       <c r="D40">
-        <v>-0.07695732947593115</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.08329940934030595</v>
+      </c>
+      <c r="E40">
+        <v>-0.07428266289383327</v>
+      </c>
+      <c r="F40">
+        <v>0.05092479166985407</v>
+      </c>
+      <c r="G40">
+        <v>-0.02265103836363015</v>
+      </c>
+      <c r="H40">
+        <v>0.1620407946460042</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.0252854061700102</v>
+        <v>0.02330576458994809</v>
       </c>
       <c r="C41">
-        <v>-0.008778767819438614</v>
+        <v>-0.008223895188783279</v>
       </c>
       <c r="D41">
-        <v>-0.06817994458357501</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.05696959927641328</v>
+      </c>
+      <c r="E41">
+        <v>-0.05196920999010768</v>
+      </c>
+      <c r="F41">
+        <v>-0.00353806026934012</v>
+      </c>
+      <c r="G41">
+        <v>-0.00171436972282649</v>
+      </c>
+      <c r="H41">
+        <v>0.04911936384441334</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.03476308938535692</v>
+        <v>0.02532244200983351</v>
       </c>
       <c r="C43">
-        <v>0.001986064286911746</v>
+        <v>-0.01853647440012908</v>
       </c>
       <c r="D43">
-        <v>-0.1054557113319243</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.0873405909237326</v>
+      </c>
+      <c r="E43">
+        <v>-0.03900136291331485</v>
+      </c>
+      <c r="F43">
+        <v>0.003083361670940275</v>
+      </c>
+      <c r="G43">
+        <v>-0.004051548857419642</v>
+      </c>
+      <c r="H43">
+        <v>0.06849315480843417</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.01294303660262046</v>
+        <v>0.01666067994034565</v>
       </c>
       <c r="C44">
-        <v>0.03997821593267178</v>
+        <v>-0.0413198414932616</v>
       </c>
       <c r="D44">
-        <v>-0.08600494925456686</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.09468390750623279</v>
+      </c>
+      <c r="E44">
+        <v>-0.07174773053162502</v>
+      </c>
+      <c r="F44">
+        <v>-0.003652258704579809</v>
+      </c>
+      <c r="G44">
+        <v>0.01765374254595703</v>
+      </c>
+      <c r="H44">
+        <v>0.07425145030772588</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1861,100 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.02045222043783394</v>
+        <v>0.0167064325964809</v>
       </c>
       <c r="C46">
-        <v>0.01836708131558618</v>
+        <v>-0.03011687482038806</v>
       </c>
       <c r="D46">
-        <v>-0.07309181054235914</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.08544465776952802</v>
+      </c>
+      <c r="E46">
+        <v>-0.03754470781196844</v>
+      </c>
+      <c r="F46">
+        <v>-0.02021514757822801</v>
+      </c>
+      <c r="G46">
+        <v>0.0306895626725919</v>
+      </c>
+      <c r="H46">
+        <v>0.1028506058164415</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.09282752387229526</v>
+        <v>0.08404386398581894</v>
       </c>
       <c r="C47">
-        <v>0.06769338552832314</v>
+        <v>-0.08920443120362935</v>
       </c>
       <c r="D47">
-        <v>-0.04052474458308602</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.03390419181431968</v>
+      </c>
+      <c r="E47">
+        <v>-0.03914632078786362</v>
+      </c>
+      <c r="F47">
+        <v>0.02141486477165782</v>
+      </c>
+      <c r="G47">
+        <v>0.0568809245235109</v>
+      </c>
+      <c r="H47">
+        <v>0.0125422101810127</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.02083824334343381</v>
+        <v>0.01950237483382583</v>
       </c>
       <c r="C48">
-        <v>0.006951103888662038</v>
+        <v>-0.018770613936414</v>
       </c>
       <c r="D48">
-        <v>-0.07108845961868286</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.07784802326287768</v>
+      </c>
+      <c r="E48">
+        <v>-0.0512812604749075</v>
+      </c>
+      <c r="F48">
+        <v>-0.01600984439417772</v>
+      </c>
+      <c r="G48">
+        <v>0.01089039622036602</v>
+      </c>
+      <c r="H48">
+        <v>0.05475146329537658</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1965,74 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.07640002626174551</v>
+        <v>0.059397167714339</v>
       </c>
       <c r="C50">
-        <v>0.06333168778337721</v>
+        <v>-0.07011220096480093</v>
       </c>
       <c r="D50">
-        <v>-0.06792754567103312</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.06034225049426598</v>
+      </c>
+      <c r="E50">
+        <v>-0.04932137397798084</v>
+      </c>
+      <c r="F50">
+        <v>0.04111014044005131</v>
+      </c>
+      <c r="G50">
+        <v>-0.009592187484375037</v>
+      </c>
+      <c r="H50">
+        <v>0.0404424682531308</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.007826115136749469</v>
+        <v>0.007767389735096194</v>
       </c>
       <c r="C51">
-        <v>0.0128074089943009</v>
+        <v>-0.01532702028134562</v>
       </c>
       <c r="D51">
-        <v>-0.0760458958089556</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.08483889294053648</v>
+      </c>
+      <c r="E51">
+        <v>-0.02650340947396787</v>
+      </c>
+      <c r="F51">
+        <v>-0.003565032344266465</v>
+      </c>
+      <c r="G51">
+        <v>-0.002796287094237621</v>
+      </c>
+      <c r="H51">
+        <v>0.08023569660825905</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.07511296195067114</v>
+        <v>0.08568454493603964</v>
       </c>
       <c r="C53">
-        <v>0.08893294599503947</v>
+        <v>-0.1015306006470292</v>
       </c>
       <c r="D53">
-        <v>-0.01897855628957058</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.00611994535299713</v>
+      </c>
+      <c r="E53">
+        <v>-0.09951704886629145</v>
+      </c>
+      <c r="F53">
+        <v>0.02445398475428049</v>
+      </c>
+      <c r="G53">
+        <v>0.09600003330325106</v>
+      </c>
+      <c r="H53">
+        <v>-0.02034232662554228</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.03323215506805299</v>
+        <v>0.02702134202451364</v>
       </c>
       <c r="C54">
-        <v>0.02848681998486409</v>
+        <v>-0.03482511816287129</v>
       </c>
       <c r="D54">
-        <v>-0.08587550770659005</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.08560481357925766</v>
+      </c>
+      <c r="E54">
+        <v>-0.03983153587538929</v>
+      </c>
+      <c r="F54">
+        <v>-0.01911714006336826</v>
+      </c>
+      <c r="G54">
+        <v>0.002814626682252339</v>
+      </c>
+      <c r="H54">
+        <v>0.1145036975310119</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.08571151915613281</v>
+        <v>0.08356158043590074</v>
       </c>
       <c r="C55">
-        <v>0.06867121443355464</v>
+        <v>-0.08237172441080445</v>
       </c>
       <c r="D55">
-        <v>0.0007264897614634663</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.01090287434184397</v>
+      </c>
+      <c r="E55">
+        <v>-0.06092049891858729</v>
+      </c>
+      <c r="F55">
+        <v>0.02977522112548893</v>
+      </c>
+      <c r="G55">
+        <v>0.04269357715525488</v>
+      </c>
+      <c r="H55">
+        <v>-0.02278225065848898</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.133592754878478</v>
+        <v>0.1303396663532636</v>
       </c>
       <c r="C56">
-        <v>0.1043769789525662</v>
+        <v>-0.12564648041638</v>
       </c>
       <c r="D56">
-        <v>-0.005165154878834615</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.01262245071432065</v>
+      </c>
+      <c r="E56">
+        <v>-0.06224000045771109</v>
+      </c>
+      <c r="F56">
+        <v>0.01438755731920657</v>
+      </c>
+      <c r="G56">
+        <v>0.05932598942220666</v>
+      </c>
+      <c r="H56">
+        <v>-0.0186195019246563</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2173,126 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.03353561091835334</v>
+        <v>0.03572143778592556</v>
       </c>
       <c r="C58">
-        <v>-0.02426031643264945</v>
+        <v>-0.02142908987664439</v>
       </c>
       <c r="D58">
-        <v>-0.3920886940094241</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.3916317901693</v>
+      </c>
+      <c r="E58">
+        <v>-0.2451175587279781</v>
+      </c>
+      <c r="F58">
+        <v>0.1013291336733603</v>
+      </c>
+      <c r="G58">
+        <v>-0.3931219600324407</v>
+      </c>
+      <c r="H58">
+        <v>-0.3898481566844844</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.1396736563530628</v>
+        <v>0.1735211013881663</v>
       </c>
       <c r="C59">
-        <v>-0.1918008495337703</v>
+        <v>0.1708870365441619</v>
       </c>
       <c r="D59">
-        <v>-0.01507748377047069</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.04480536743094009</v>
+      </c>
+      <c r="E59">
+        <v>-0.01725311244475632</v>
+      </c>
+      <c r="F59">
+        <v>-0.03771493991066558</v>
+      </c>
+      <c r="G59">
+        <v>-0.0008708961560842271</v>
+      </c>
+      <c r="H59">
+        <v>-0.01857729078149934</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.2554216564975411</v>
+        <v>0.2319482543077716</v>
       </c>
       <c r="C60">
-        <v>0.05310671157460237</v>
+        <v>-0.09501632392455756</v>
       </c>
       <c r="D60">
-        <v>-0.1536478230093246</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.1150836435368365</v>
+      </c>
+      <c r="E60">
+        <v>0.3553871893600266</v>
+      </c>
+      <c r="F60">
+        <v>0.09602016058382976</v>
+      </c>
+      <c r="G60">
+        <v>0.01439462188427397</v>
+      </c>
+      <c r="H60">
+        <v>-0.08527007055743055</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.04592662796684548</v>
+        <v>0.04139880259058174</v>
       </c>
       <c r="C61">
-        <v>0.05017676357074424</v>
+        <v>-0.05927590908401008</v>
       </c>
       <c r="D61">
-        <v>-0.1000446944377148</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.09290057749460504</v>
+      </c>
+      <c r="E61">
+        <v>-0.00922931164612365</v>
+      </c>
+      <c r="F61">
+        <v>-0.007443593517990072</v>
+      </c>
+      <c r="G61">
+        <v>0.02223682464486428</v>
+      </c>
+      <c r="H61">
+        <v>0.08080077332077484</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2303,204 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.01656846063897443</v>
+        <v>0.0156224127531234</v>
       </c>
       <c r="C63">
-        <v>0.01691713040890613</v>
+        <v>-0.03102709599454504</v>
       </c>
       <c r="D63">
-        <v>-0.06183991279945702</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.07056747275742052</v>
+      </c>
+      <c r="E63">
+        <v>-0.04771624908356554</v>
+      </c>
+      <c r="F63">
+        <v>0.02361989731623299</v>
+      </c>
+      <c r="G63">
+        <v>-0.005138040085622094</v>
+      </c>
+      <c r="H63">
+        <v>0.04835315452273247</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.0580626586385628</v>
+        <v>0.05512591065356953</v>
       </c>
       <c r="C64">
-        <v>0.06207499661202923</v>
+        <v>-0.07911967720673198</v>
       </c>
       <c r="D64">
-        <v>-0.06176097560763662</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.05462888304040256</v>
+      </c>
+      <c r="E64">
+        <v>-0.02835150051822382</v>
+      </c>
+      <c r="F64">
+        <v>-0.01591406944673682</v>
+      </c>
+      <c r="G64">
+        <v>0.05284155514949418</v>
+      </c>
+      <c r="H64">
+        <v>0.04592769987817874</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.05940368807146586</v>
+        <v>0.05095820317410611</v>
       </c>
       <c r="C65">
-        <v>0.000324407142710263</v>
+        <v>-0.02525027786318235</v>
       </c>
       <c r="D65">
-        <v>-0.1147835169626378</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.1196966632772293</v>
+      </c>
+      <c r="E65">
+        <v>-0.007085062908363397</v>
+      </c>
+      <c r="F65">
+        <v>0.01717206792117953</v>
+      </c>
+      <c r="G65">
+        <v>-0.0390089821011654</v>
+      </c>
+      <c r="H65">
+        <v>-0.02208502181742619</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.04495886632927144</v>
+        <v>0.04286104922316114</v>
       </c>
       <c r="C66">
-        <v>0.05154517603688875</v>
+        <v>-0.07082530699188461</v>
       </c>
       <c r="D66">
-        <v>-0.1143792277408519</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.1291088784715117</v>
+      </c>
+      <c r="E66">
+        <v>-0.01665571279411246</v>
+      </c>
+      <c r="F66">
+        <v>-0.009274076580003263</v>
+      </c>
+      <c r="G66">
+        <v>-0.00596948439992147</v>
+      </c>
+      <c r="H66">
+        <v>0.06223538622020386</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.04580537373206459</v>
+        <v>0.03863083146817547</v>
       </c>
       <c r="C67">
-        <v>0.02599314699378323</v>
+        <v>-0.02768624596228015</v>
       </c>
       <c r="D67">
-        <v>-0.02940614885215198</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.02423751320218199</v>
+      </c>
+      <c r="E67">
+        <v>-0.02642702031742038</v>
+      </c>
+      <c r="F67">
+        <v>0.002893129145726945</v>
+      </c>
+      <c r="G67">
+        <v>-0.03159761036327208</v>
+      </c>
+      <c r="H67">
+        <v>0.0417797078647042</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.1710794355898791</v>
+        <v>0.1958336254626517</v>
       </c>
       <c r="C68">
-        <v>-0.2505018132473737</v>
+        <v>0.2060658843534578</v>
       </c>
       <c r="D68">
-        <v>0.01947702438782189</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.01670956230137684</v>
+      </c>
+      <c r="E68">
+        <v>-0.05521915975591753</v>
+      </c>
+      <c r="F68">
+        <v>0.02206456967301509</v>
+      </c>
+      <c r="G68">
+        <v>-0.008432546847377424</v>
+      </c>
+      <c r="H68">
+        <v>-0.008205867040922295</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.08410518642077283</v>
+        <v>0.07667795643342737</v>
       </c>
       <c r="C69">
-        <v>0.07933377459793871</v>
+        <v>-0.09825916457186691</v>
       </c>
       <c r="D69">
-        <v>-0.05274647639690234</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.04697238665688828</v>
+      </c>
+      <c r="E69">
+        <v>-0.02812905529948921</v>
+      </c>
+      <c r="F69">
+        <v>0.001978284410180916</v>
+      </c>
+      <c r="G69">
+        <v>0.03814016270816143</v>
+      </c>
+      <c r="H69">
+        <v>0.02705566094647007</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2511,672 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.1450590183802163</v>
+        <v>0.1807884690458918</v>
       </c>
       <c r="C71">
-        <v>-0.2462910792837936</v>
+        <v>0.2164160652235691</v>
       </c>
       <c r="D71">
-        <v>-0.01363472525705535</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.03726187833878059</v>
+      </c>
+      <c r="E71">
+        <v>-0.05376224166258831</v>
+      </c>
+      <c r="F71">
+        <v>0.0212783196594623</v>
+      </c>
+      <c r="G71">
+        <v>0.03685510865763274</v>
+      </c>
+      <c r="H71">
+        <v>0.01357521022063027</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.09960752736008191</v>
+        <v>0.1020013499028142</v>
       </c>
       <c r="C72">
-        <v>0.03807450903637304</v>
+        <v>-0.06594160273069812</v>
       </c>
       <c r="D72">
-        <v>-0.09507488315278383</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.09792621637322979</v>
+      </c>
+      <c r="E72">
+        <v>0.02723931494564423</v>
+      </c>
+      <c r="F72">
+        <v>0.0396493356841148</v>
+      </c>
+      <c r="G72">
+        <v>0.02329788152999988</v>
+      </c>
+      <c r="H72">
+        <v>0.02071733220314581</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.3092771846509073</v>
+        <v>0.2598155389529005</v>
       </c>
       <c r="C73">
-        <v>-0.0002225022135280347</v>
+        <v>-0.07304748934163971</v>
       </c>
       <c r="D73">
-        <v>-0.263769132994465</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.1875776116275243</v>
+      </c>
+      <c r="E73">
+        <v>0.6653133711002102</v>
+      </c>
+      <c r="F73">
+        <v>0.1139914181460289</v>
+      </c>
+      <c r="G73">
+        <v>-0.04848758408590031</v>
+      </c>
+      <c r="H73">
+        <v>-0.1367388049218018</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.1025434449105103</v>
+        <v>0.1007455682672324</v>
       </c>
       <c r="C74">
-        <v>0.06773143601750525</v>
+        <v>-0.09025016072537932</v>
       </c>
       <c r="D74">
-        <v>-0.0211347441097899</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.0008466180443620036</v>
+      </c>
+      <c r="E74">
+        <v>-0.08575244724282496</v>
+      </c>
+      <c r="F74">
+        <v>0.03884332760203695</v>
+      </c>
+      <c r="G74">
+        <v>0.05935043039466976</v>
+      </c>
+      <c r="H74">
+        <v>-0.05121174798480083</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.236104535204388</v>
+        <v>0.2303907985044942</v>
       </c>
       <c r="C75">
-        <v>0.1346871559630169</v>
+        <v>-0.1663202393383947</v>
       </c>
       <c r="D75">
-        <v>0.0612843910987414</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.1018105937930063</v>
+      </c>
+      <c r="E75">
+        <v>-0.08782850351565009</v>
+      </c>
+      <c r="F75">
+        <v>-0.02312657989550038</v>
+      </c>
+      <c r="G75">
+        <v>0.08058975440761156</v>
+      </c>
+      <c r="H75">
+        <v>-0.1200597444315127</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.1254748429409389</v>
+        <v>0.1250480207825641</v>
       </c>
       <c r="C76">
-        <v>0.09155575058076873</v>
+        <v>-0.1159571930146385</v>
       </c>
       <c r="D76">
-        <v>0.004700498212087708</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.01916932958343157</v>
+      </c>
+      <c r="E76">
+        <v>-0.1152495782994468</v>
+      </c>
+      <c r="F76">
+        <v>0.00905161336547914</v>
+      </c>
+      <c r="G76">
+        <v>0.06228364418881559</v>
+      </c>
+      <c r="H76">
+        <v>-0.01277297285627055</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.07484126794992865</v>
+        <v>0.0676859753096027</v>
       </c>
       <c r="C77">
-        <v>0.05160604925709422</v>
+        <v>-0.0700483474122323</v>
       </c>
       <c r="D77">
-        <v>-0.07231490476956573</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.1387976571209081</v>
+      </c>
+      <c r="E77">
+        <v>-0.1252619428267686</v>
+      </c>
+      <c r="F77">
+        <v>-0.2986365875417277</v>
+      </c>
+      <c r="G77">
+        <v>-0.09270142453902626</v>
+      </c>
+      <c r="H77">
+        <v>-0.2299362500676252</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.03753365466725039</v>
+        <v>0.03952810319043736</v>
       </c>
       <c r="C78">
-        <v>0.04792295883212246</v>
+        <v>-0.06191207549228336</v>
       </c>
       <c r="D78">
-        <v>-0.1118431993387659</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.1237986470805908</v>
+      </c>
+      <c r="E78">
+        <v>-0.023132177941309</v>
+      </c>
+      <c r="F78">
+        <v>0.0221606854182441</v>
+      </c>
+      <c r="G78">
+        <v>0.03071520923897949</v>
+      </c>
+      <c r="H78">
+        <v>0.03818614439827098</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.000636065077525046</v>
+        <v>0.04163872020396202</v>
       </c>
       <c r="C79">
-        <v>-0.0006391126985084064</v>
+        <v>-0.08770815527294287</v>
       </c>
       <c r="D79">
-        <v>-0.0170852077587768</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.02678702009498712</v>
+      </c>
+      <c r="E79">
+        <v>-0.1705048678197844</v>
+      </c>
+      <c r="F79">
+        <v>0.07158664387135839</v>
+      </c>
+      <c r="G79">
+        <v>0.5632039532222535</v>
+      </c>
+      <c r="H79">
+        <v>-0.5342801557655743</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.03027755881058819</v>
+        <v>0.02568473679588356</v>
       </c>
       <c r="C80">
-        <v>0.0188098054961429</v>
+        <v>-0.03853335980540144</v>
       </c>
       <c r="D80">
-        <v>-0.02703296423559327</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.03498685780102437</v>
+      </c>
+      <c r="E80">
+        <v>-0.008943807341019076</v>
+      </c>
+      <c r="F80">
+        <v>-0.03650029304916456</v>
+      </c>
+      <c r="G80">
+        <v>-0.04021712086476982</v>
+      </c>
+      <c r="H80">
+        <v>0.03122507014433397</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.1379249978993868</v>
+        <v>0.127918896527031</v>
       </c>
       <c r="C81">
-        <v>0.1007908968188758</v>
+        <v>-0.1189376565545498</v>
       </c>
       <c r="D81">
-        <v>0.0473972122529905</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.06923016739360147</v>
+      </c>
+      <c r="E81">
+        <v>-0.1168372081622226</v>
+      </c>
+      <c r="F81">
+        <v>-0.006950266406373416</v>
+      </c>
+      <c r="G81">
+        <v>0.05310395498320668</v>
+      </c>
+      <c r="H81">
+        <v>-0.03447039569447381</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>-0.2871664208439384</v>
+        <v>0.2478606584244409</v>
       </c>
       <c r="C82">
-        <v>0.2782626004873855</v>
+        <v>-0.2549441688740478</v>
       </c>
       <c r="D82">
-        <v>0.2172743986150573</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.2222633281734223</v>
+      </c>
+      <c r="E82">
+        <v>0.007734276260687248</v>
+      </c>
+      <c r="F82">
+        <v>0.05728676709622212</v>
+      </c>
+      <c r="G82">
+        <v>0.2412568922955752</v>
+      </c>
+      <c r="H82">
+        <v>0.4258490993780554</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.0290104806077614</v>
+        <v>0.02319369214931889</v>
       </c>
       <c r="C83">
-        <v>0.0455736570065899</v>
+        <v>-0.05224763537286811</v>
       </c>
       <c r="D83">
-        <v>-0.05121431041354984</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.05159681515719955</v>
+      </c>
+      <c r="E83">
+        <v>-0.003641998653336812</v>
+      </c>
+      <c r="F83">
+        <v>-0.02217769293845062</v>
+      </c>
+      <c r="G83">
+        <v>0.003327742557983787</v>
+      </c>
+      <c r="H83">
+        <v>0.02806470495824865</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>0.000197600052584105</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>-0.004985181477759879</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.01548257232161992</v>
+      </c>
+      <c r="E84">
+        <v>-0.01589511953386648</v>
+      </c>
+      <c r="F84">
+        <v>0.004768267846290438</v>
+      </c>
+      <c r="G84">
+        <v>-0.00968224348581998</v>
+      </c>
+      <c r="H84">
+        <v>0.002024981462049335</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.1780260921749784</v>
+        <v>0.1601582459133489</v>
       </c>
       <c r="C85">
-        <v>0.0951815975371406</v>
+        <v>-0.1322489447737452</v>
       </c>
       <c r="D85">
-        <v>0.04296939331783688</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.07331605940674819</v>
+      </c>
+      <c r="E85">
+        <v>-0.04905102460635708</v>
+      </c>
+      <c r="F85">
+        <v>0.0304113432934745</v>
+      </c>
+      <c r="G85">
+        <v>0.08940771680722662</v>
+      </c>
+      <c r="H85">
+        <v>-0.1101487269400024</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.01417778096245671</v>
+        <v>0.01938518262264361</v>
       </c>
       <c r="C86">
-        <v>0.01896497502020276</v>
+        <v>-0.02220706402436271</v>
       </c>
       <c r="D86">
-        <v>-0.1346296544790601</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.1245587352757702</v>
+      </c>
+      <c r="E86">
+        <v>-0.01525053228071232</v>
+      </c>
+      <c r="F86">
+        <v>-0.007851125696191888</v>
+      </c>
+      <c r="G86">
+        <v>0.02638842574730706</v>
+      </c>
+      <c r="H86">
+        <v>0.06100693168156517</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.02720953454543377</v>
+        <v>0.03259552861465684</v>
       </c>
       <c r="C87">
-        <v>0.002676615465518326</v>
+        <v>-0.02594469477699541</v>
       </c>
       <c r="D87">
-        <v>-0.08963401242755165</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.1251461461039503</v>
+      </c>
+      <c r="E87">
+        <v>-0.08137828637841389</v>
+      </c>
+      <c r="F87">
+        <v>-0.02179878251238096</v>
+      </c>
+      <c r="G87">
+        <v>-0.006363520069737814</v>
+      </c>
+      <c r="H87">
+        <v>0.03411888342669485</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.07939999620162264</v>
+        <v>0.07191445747957496</v>
       </c>
       <c r="C88">
-        <v>0.04136123952794265</v>
+        <v>-0.05847340318229052</v>
       </c>
       <c r="D88">
-        <v>-0.04532941709540134</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.0259945413859537</v>
+      </c>
+      <c r="E88">
+        <v>-0.02740472279311072</v>
+      </c>
+      <c r="F88">
+        <v>-0.002340681032082723</v>
+      </c>
+      <c r="G88">
+        <v>0.001988447173084492</v>
+      </c>
+      <c r="H88">
+        <v>0.03935114198212029</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.2058991078531812</v>
+        <v>0.2700008797229613</v>
       </c>
       <c r="C89">
-        <v>-0.3640699422252147</v>
+        <v>0.3515863524229972</v>
       </c>
       <c r="D89">
-        <v>0.05481772136976053</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.013181661878099</v>
+      </c>
+      <c r="E89">
+        <v>-0.06072941983401021</v>
+      </c>
+      <c r="F89">
+        <v>-0.04705243726162756</v>
+      </c>
+      <c r="G89">
+        <v>0.02879412183962266</v>
+      </c>
+      <c r="H89">
+        <v>0.06489994968434885</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.2043693641449837</v>
+        <v>0.2388561449323554</v>
       </c>
       <c r="C90">
-        <v>-0.2914986699759591</v>
+        <v>0.2594503973213317</v>
       </c>
       <c r="D90">
-        <v>0.05273602189546912</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.005508007451671302</v>
+      </c>
+      <c r="E90">
+        <v>-0.0527767051576867</v>
+      </c>
+      <c r="F90">
+        <v>0.002964277235603259</v>
+      </c>
+      <c r="G90">
+        <v>-0.0352475633492162</v>
+      </c>
+      <c r="H90">
+        <v>0.04770185213785125</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.174349972704473</v>
+        <v>0.162247930034576</v>
       </c>
       <c r="C91">
-        <v>0.1327434990114948</v>
+        <v>-0.1575414519298223</v>
       </c>
       <c r="D91">
-        <v>0.0605163070810637</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.08403701511308576</v>
+      </c>
+      <c r="E91">
+        <v>-0.1038510480330536</v>
+      </c>
+      <c r="F91">
+        <v>0.005272364806087474</v>
+      </c>
+      <c r="G91">
+        <v>0.07913629343806046</v>
+      </c>
+      <c r="H91">
+        <v>-0.1171682494453557</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.1678296250103099</v>
+        <v>0.2156062853228338</v>
       </c>
       <c r="C92">
-        <v>-0.2827198307518968</v>
+        <v>0.2720586295352426</v>
       </c>
       <c r="D92">
-        <v>0.01283869226397511</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.01275292095207837</v>
+      </c>
+      <c r="E92">
+        <v>-0.0846859340619996</v>
+      </c>
+      <c r="F92">
+        <v>-0.03723346626946623</v>
+      </c>
+      <c r="G92">
+        <v>0.007181314416930273</v>
+      </c>
+      <c r="H92">
+        <v>0.03853636219711653</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.2315216557284597</v>
+        <v>0.2617778879830507</v>
       </c>
       <c r="C93">
-        <v>-0.3149082305244194</v>
+        <v>0.2734405596286494</v>
       </c>
       <c r="D93">
-        <v>0.03426323773188199</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.01392328706032464</v>
+      </c>
+      <c r="E93">
+        <v>-0.03069718003637965</v>
+      </c>
+      <c r="F93">
+        <v>0.0326577731192518</v>
+      </c>
+      <c r="G93">
+        <v>0.007985428327585741</v>
+      </c>
+      <c r="H93">
+        <v>0.005540254528200864</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.3875639544773422</v>
+        <v>0.3342591099202118</v>
       </c>
       <c r="C94">
-        <v>0.2620785087867849</v>
+        <v>-0.270104393377458</v>
       </c>
       <c r="D94">
-        <v>0.4589906566102048</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.4431290123659951</v>
+      </c>
+      <c r="E94">
+        <v>-0.1086543301091435</v>
+      </c>
+      <c r="F94">
+        <v>-0.0313621921802851</v>
+      </c>
+      <c r="G94">
+        <v>-0.5900001133375984</v>
+      </c>
+      <c r="H94">
+        <v>-0.05523794141631116</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.09091634683053193</v>
+        <v>0.07707868921673915</v>
       </c>
       <c r="C95">
-        <v>0.06455913799948181</v>
+        <v>-0.06325724312795747</v>
       </c>
       <c r="D95">
-        <v>-0.1320712293696869</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.08713138314183312</v>
+      </c>
+      <c r="E95">
+        <v>0.1390230726829986</v>
+      </c>
+      <c r="F95">
+        <v>-0.9025365607902517</v>
+      </c>
+      <c r="G95">
+        <v>0.05854780198824826</v>
+      </c>
+      <c r="H95">
+        <v>-0.02064180482854574</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +3187,22 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +3213,48 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.1794518872909428</v>
+        <v>0.1656335055628108</v>
       </c>
       <c r="C98">
-        <v>0.01522601640387658</v>
+        <v>-0.05731206361512084</v>
       </c>
       <c r="D98">
-        <v>-0.1450709354594129</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.1291038141005015</v>
+      </c>
+      <c r="E98">
+        <v>0.2975870952326553</v>
+      </c>
+      <c r="F98">
+        <v>0.1017199463565723</v>
+      </c>
+      <c r="G98">
+        <v>0.03021783411471427</v>
+      </c>
+      <c r="H98">
+        <v>-0.03881573456859672</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +3265,22 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +3291,74 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.004638743732060477</v>
+        <v>0.00669051102618242</v>
       </c>
       <c r="C101">
-        <v>0.01718813339358284</v>
+        <v>-0.02165373476533357</v>
       </c>
       <c r="D101">
-        <v>-0.06388333921279855</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.07777434199679087</v>
+      </c>
+      <c r="E101">
+        <v>-0.03868306761734971</v>
+      </c>
+      <c r="F101">
+        <v>0.002003341481463229</v>
+      </c>
+      <c r="G101">
+        <v>0.02194260500276454</v>
+      </c>
+      <c r="H101">
+        <v>0.1025184973125924</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>-0.1211631416454445</v>
+        <v>0.1092580535113265</v>
       </c>
       <c r="C102">
-        <v>0.1159781380896192</v>
+        <v>-0.1191567821381617</v>
       </c>
       <c r="D102">
-        <v>0.03501864400734784</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.0498382859492703</v>
+      </c>
+      <c r="E102">
+        <v>-0.03054776856001941</v>
+      </c>
+      <c r="F102">
+        <v>-0.02300668886814436</v>
+      </c>
+      <c r="G102">
+        <v>0.05615446259322944</v>
+      </c>
+      <c r="H102">
+        <v>0.0176929626092093</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
